--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Quarterly Results of FCS Software Solutions(in Rs. Cr.)</t>
   </si>
@@ -200,6 +200,141 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>28.65</t>
+  </si>
+  <si>
+    <t>28.95</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>16.30</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>16.77</t>
+  </si>
+  <si>
+    <t>12.61</t>
+  </si>
+  <si>
+    <t>8.59</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>7.83</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>6.26</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>11.18</t>
+  </si>
+  <si>
+    <t>8.76</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>9.52</t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>8.64</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>7.97</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>8.56</t>
+  </si>
+  <si>
+    <t>8.63</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>8.98</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>8.42</t>
   </si>
 </sst>
 </file>
@@ -620,8 +755,8 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>28.65</v>
+      <c r="B2" t="s">
+        <v>62</v>
       </c>
       <c r="C2">
         <v>28.65</v>
@@ -633,7 +768,7 @@
         <v>0.91</v>
       </c>
       <c r="F2">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G2">
         <v>-0.9399999999999999</v>
@@ -673,8 +808,8 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>28.95</v>
+      <c r="B3" t="s">
+        <v>63</v>
       </c>
       <c r="C3">
         <v>28.95</v>
@@ -686,7 +821,7 @@
         <v>1.13</v>
       </c>
       <c r="F3">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G3">
         <v>-2.14</v>
@@ -707,7 +842,7 @@
         <v>-1.56</v>
       </c>
       <c r="M3">
-        <v>0.1443181818181818</v>
+        <v>0.14</v>
       </c>
       <c r="N3">
         <v>-1.56</v>
@@ -726,8 +861,8 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>13.78</v>
+      <c r="B4" t="s">
+        <v>64</v>
       </c>
       <c r="C4">
         <v>13.78</v>
@@ -739,7 +874,7 @@
         <v>1.45</v>
       </c>
       <c r="F4">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G4">
         <v>-4.44</v>
@@ -779,8 +914,8 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>16.3</v>
+      <c r="B5" t="s">
+        <v>65</v>
       </c>
       <c r="C5">
         <v>16.3</v>
@@ -792,7 +927,7 @@
         <v>1.16</v>
       </c>
       <c r="F5">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G5">
         <v>-0.37</v>
@@ -832,8 +967,8 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>12.03</v>
+      <c r="B6" t="s">
+        <v>66</v>
       </c>
       <c r="C6">
         <v>12.03</v>
@@ -845,7 +980,7 @@
         <v>1.38</v>
       </c>
       <c r="F6">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G6">
         <v>-0.55</v>
@@ -869,10 +1004,10 @@
         <v>0.03</v>
       </c>
       <c r="N6">
-        <v>-0.7879069767441863</v>
+        <v>-0.79</v>
       </c>
       <c r="O6">
-        <v>-2.00953488372093</v>
+        <v>-2.01</v>
       </c>
       <c r="P6">
         <v>165.96</v>
@@ -885,8 +1020,8 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>16.77</v>
+      <c r="B7" t="s">
+        <v>67</v>
       </c>
       <c r="C7">
         <v>16.77</v>
@@ -898,7 +1033,7 @@
         <v>1.1</v>
       </c>
       <c r="F7">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G7">
         <v>-0.24</v>
@@ -938,8 +1073,8 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>12.61</v>
+      <c r="B8" t="s">
+        <v>68</v>
       </c>
       <c r="C8">
         <v>12.61</v>
@@ -951,7 +1086,7 @@
         <v>1.54</v>
       </c>
       <c r="F8">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G8">
         <v>-3.08</v>
@@ -991,8 +1126,8 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>8.59</v>
+      <c r="B9" t="s">
+        <v>69</v>
       </c>
       <c r="C9">
         <v>8.59</v>
@@ -1004,7 +1139,7 @@
         <v>0.66</v>
       </c>
       <c r="F9">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G9">
         <v>-0.76</v>
@@ -1044,8 +1179,8 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
-        <v>5.02</v>
+      <c r="B10" t="s">
+        <v>70</v>
       </c>
       <c r="C10">
         <v>5.02</v>
@@ -1057,7 +1192,7 @@
         <v>0.91</v>
       </c>
       <c r="F10">
-        <v>2.710555555555556</v>
+        <v>2.71</v>
       </c>
       <c r="G10">
         <v>-0.8</v>
@@ -1097,8 +1232,8 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
-        <v>7.83</v>
+      <c r="B11" t="s">
+        <v>71</v>
       </c>
       <c r="C11">
         <v>7.83</v>
@@ -1122,7 +1257,7 @@
         <v>0.58</v>
       </c>
       <c r="J11">
-        <v>0.3440476190476191</v>
+        <v>0.34</v>
       </c>
       <c r="K11">
         <v>0.57</v>
@@ -1150,8 +1285,8 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>5.01</v>
+      <c r="B12" t="s">
+        <v>72</v>
       </c>
       <c r="C12">
         <v>5.01</v>
@@ -1203,8 +1338,8 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>6.26</v>
+      <c r="B13" t="s">
+        <v>73</v>
       </c>
       <c r="C13">
         <v>6.26</v>
@@ -1228,7 +1363,7 @@
         <v>0.91</v>
       </c>
       <c r="J13">
-        <v>0.3440476190476191</v>
+        <v>0.34</v>
       </c>
       <c r="K13">
         <v>0.91</v>
@@ -1256,8 +1391,8 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
-        <v>6.67</v>
+      <c r="B14" t="s">
+        <v>74</v>
       </c>
       <c r="C14">
         <v>6.67</v>
@@ -1281,7 +1416,7 @@
         <v>2.15</v>
       </c>
       <c r="J14">
-        <v>0.3440476190476191</v>
+        <v>0.34</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1309,8 +1444,8 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>5.99</v>
+      <c r="B15" t="s">
+        <v>75</v>
       </c>
       <c r="C15">
         <v>5.99</v>
@@ -1362,8 +1497,8 @@
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>3.34</v>
+      <c r="B16" t="s">
+        <v>76</v>
       </c>
       <c r="C16">
         <v>3.34</v>
@@ -1415,8 +1550,8 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
-        <v>5.5</v>
+      <c r="B17" t="s">
+        <v>77</v>
       </c>
       <c r="C17">
         <v>5.5</v>
@@ -1468,8 +1603,8 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18">
-        <v>6.61</v>
+      <c r="B18" t="s">
+        <v>78</v>
       </c>
       <c r="C18">
         <v>6.61</v>
@@ -1514,15 +1649,15 @@
         <v>170.96</v>
       </c>
       <c r="Q18">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
-        <v>8.960000000000001</v>
+      <c r="B19" t="s">
+        <v>79</v>
       </c>
       <c r="C19">
         <v>8.960000000000001</v>
@@ -1567,15 +1702,15 @@
         <v>170.96</v>
       </c>
       <c r="Q19">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
-        <v>7.99</v>
+      <c r="B20" t="s">
+        <v>80</v>
       </c>
       <c r="C20">
         <v>7.99</v>
@@ -1627,8 +1762,8 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
-        <v>6.91</v>
+      <c r="B21" t="s">
+        <v>81</v>
       </c>
       <c r="C21">
         <v>6.91</v>
@@ -1680,8 +1815,8 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
-        <v>8.51</v>
+      <c r="B22" t="s">
+        <v>82</v>
       </c>
       <c r="C22">
         <v>8.51</v>
@@ -1733,8 +1868,8 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
-        <v>11.8</v>
+      <c r="B23" t="s">
+        <v>83</v>
       </c>
       <c r="C23">
         <v>11.8</v>
@@ -1786,8 +1921,8 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24">
-        <v>11.18</v>
+      <c r="B24" t="s">
+        <v>84</v>
       </c>
       <c r="C24">
         <v>11.18</v>
@@ -1839,8 +1974,8 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
-        <v>8.76</v>
+      <c r="B25" t="s">
+        <v>85</v>
       </c>
       <c r="C25">
         <v>8.76</v>
@@ -1892,8 +2027,8 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26">
-        <v>9.119999999999999</v>
+      <c r="B26" t="s">
+        <v>86</v>
       </c>
       <c r="C26">
         <v>9.119999999999999</v>
@@ -1938,15 +2073,15 @@
         <v>170.96</v>
       </c>
       <c r="Q26">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
-        <v>9.710000000000001</v>
+      <c r="B27" t="s">
+        <v>87</v>
       </c>
       <c r="C27">
         <v>9.710000000000001</v>
@@ -1998,8 +2133,8 @@
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28">
-        <v>9.289999999999999</v>
+      <c r="B28" t="s">
+        <v>88</v>
       </c>
       <c r="C28">
         <v>9.289999999999999</v>
@@ -2044,15 +2179,15 @@
         <v>170.96</v>
       </c>
       <c r="Q28">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29">
-        <v>9.52</v>
+      <c r="B29" t="s">
+        <v>89</v>
       </c>
       <c r="C29">
         <v>9.52</v>
@@ -2104,8 +2239,8 @@
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
-        <v>8.859999999999999</v>
+      <c r="B30" t="s">
+        <v>90</v>
       </c>
       <c r="C30">
         <v>8.859999999999999</v>
@@ -2150,15 +2285,15 @@
         <v>170.96</v>
       </c>
       <c r="Q30">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
-        <v>8.640000000000001</v>
+      <c r="B31" t="s">
+        <v>91</v>
       </c>
       <c r="C31">
         <v>8.640000000000001</v>
@@ -2203,15 +2338,15 @@
         <v>170.96</v>
       </c>
       <c r="Q31">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32">
-        <v>6.65</v>
+      <c r="B32" t="s">
+        <v>92</v>
       </c>
       <c r="C32">
         <v>6.65</v>
@@ -2256,15 +2391,15 @@
         <v>170.96</v>
       </c>
       <c r="Q32">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33">
-        <v>8.300000000000001</v>
+      <c r="B33" t="s">
+        <v>93</v>
       </c>
       <c r="C33">
         <v>8.300000000000001</v>
@@ -2316,8 +2451,8 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
-        <v>7.97</v>
+      <c r="B34" t="s">
+        <v>94</v>
       </c>
       <c r="C34">
         <v>7.97</v>
@@ -2369,8 +2504,8 @@
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35">
-        <v>8.039999999999999</v>
+      <c r="B35" t="s">
+        <v>95</v>
       </c>
       <c r="C35">
         <v>8.039999999999999</v>
@@ -2406,10 +2541,10 @@
         <v>0.04</v>
       </c>
       <c r="N35">
-        <v>-0.7879069767441863</v>
+        <v>-0.79</v>
       </c>
       <c r="O35">
-        <v>-2.00953488372093</v>
+        <v>-2.01</v>
       </c>
       <c r="P35">
         <v>170.96</v>
@@ -2422,8 +2557,8 @@
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36">
-        <v>10</v>
+      <c r="B36" t="s">
+        <v>96</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -2475,8 +2610,8 @@
       <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B37">
-        <v>8.56</v>
+      <c r="B37" t="s">
+        <v>97</v>
       </c>
       <c r="C37">
         <v>8.56</v>
@@ -2528,8 +2663,8 @@
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38">
-        <v>8.630000000000001</v>
+      <c r="B38" t="s">
+        <v>98</v>
       </c>
       <c r="C38">
         <v>8.630000000000001</v>
@@ -2574,15 +2709,15 @@
         <v>170.96</v>
       </c>
       <c r="Q38">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B39">
-        <v>9.210000000000001</v>
+      <c r="B39" t="s">
+        <v>99</v>
       </c>
       <c r="C39">
         <v>9.210000000000001</v>
@@ -2627,15 +2762,15 @@
         <v>170.96</v>
       </c>
       <c r="Q39">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40">
-        <v>8.550000000000001</v>
+      <c r="B40" t="s">
+        <v>100</v>
       </c>
       <c r="C40">
         <v>8.550000000000001</v>
@@ -2680,15 +2815,15 @@
         <v>170.96</v>
       </c>
       <c r="Q40">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B41">
-        <v>8.49</v>
+      <c r="B41" t="s">
+        <v>101</v>
       </c>
       <c r="C41">
         <v>8.49</v>
@@ -2733,15 +2868,15 @@
         <v>170.96</v>
       </c>
       <c r="Q41">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B42">
-        <v>9.220000000000001</v>
+      <c r="B42" t="s">
+        <v>102</v>
       </c>
       <c r="C42">
         <v>9.220000000000001</v>
@@ -2786,15 +2921,15 @@
         <v>170.96</v>
       </c>
       <c r="Q42">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43">
-        <v>8.98</v>
+      <c r="B43" t="s">
+        <v>103</v>
       </c>
       <c r="C43">
         <v>8.98</v>
@@ -2839,15 +2974,15 @@
         <v>170.96</v>
       </c>
       <c r="Q43">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B44">
-        <v>9.49</v>
+      <c r="B44" t="s">
+        <v>104</v>
       </c>
       <c r="C44">
         <v>9.49</v>
@@ -2892,15 +3027,15 @@
         <v>170.96</v>
       </c>
       <c r="Q44">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45">
-        <v>9.06</v>
+      <c r="B45" t="s">
+        <v>105</v>
       </c>
       <c r="C45">
         <v>9.06</v>
@@ -2945,15 +3080,15 @@
         <v>170.96</v>
       </c>
       <c r="Q45">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B46">
-        <v>8.42</v>
+      <c r="B46" t="s">
+        <v>106</v>
       </c>
       <c r="C46">
         <v>8.42</v>
@@ -2998,7 +3133,7 @@
         <v>170.96</v>
       </c>
       <c r="Q46">
-        <v>359.2520689655173</v>
+        <v>359.25</v>
       </c>
     </row>
   </sheetData>
